--- a/cidr_ranges.xlsx
+++ b/cidr_ranges.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2VPC" sheetId="1" r:id="rId1"/>
+    <sheet name="1 VPC" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
   <si>
     <t>first IP</t>
   </si>
@@ -138,6 +139,27 @@
   </si>
   <si>
     <t>CIDR Range - 10.48.160.0/25</t>
+  </si>
+  <si>
+    <t>10.48.160.0/25</t>
+  </si>
+  <si>
+    <t>10.48.160.0/27</t>
+  </si>
+  <si>
+    <t>10.48.160.32/27</t>
+  </si>
+  <si>
+    <t>10.48.160.64/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.48.160.64</t>
+  </si>
+  <si>
+    <t>10.48.160.96/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.48.160.96</t>
   </si>
 </sst>
 </file>
@@ -477,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="A2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -691,4 +713,147 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/cidr_ranges.xlsx
+++ b/cidr_ranges.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Personal\master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Vodafone\VF-POS-Pronto\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="50">
   <si>
     <t>first IP</t>
   </si>
@@ -144,9 +144,6 @@
     <t>10.48.160.0/25</t>
   </si>
   <si>
-    <t>10.48.160.0/27</t>
-  </si>
-  <si>
     <t>10.48.160.32/27</t>
   </si>
   <si>
@@ -160,6 +157,24 @@
   </si>
   <si>
     <t xml:space="preserve"> 10.48.160.96</t>
+  </si>
+  <si>
+    <t>vf-pos-test-vpc</t>
+  </si>
+  <si>
+    <t>vf-pos-test-PublicSubnetA</t>
+  </si>
+  <si>
+    <t>vf-pos-test-PublicSubnetB</t>
+  </si>
+  <si>
+    <t>vf-pos-test-PrivateSubnetA</t>
+  </si>
+  <si>
+    <t>vf-pos-test-PrivateSubnetB</t>
+  </si>
+  <si>
+    <t>vf-pos-test-PrivateSubnetC</t>
   </si>
 </sst>
 </file>
@@ -717,15 +732,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.7109375" bestFit="1" customWidth="1"/>
@@ -750,7 +765,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>38</v>
@@ -767,50 +782,50 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>32</v>
@@ -818,40 +833,57 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
